--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1031729.153861103</v>
+        <v>1031032.492656013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114759</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>169.2143446374581</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>174.6839226277694</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -831,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>102.2018403135257</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -867,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>140.8899633373016</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -904,13 +904,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>94.19117914484178</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>118.969354094449</v>
+        <v>77.34040729634083</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>115.5390044870162</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1144,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068488</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>40.79871210679609</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511842</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933377</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>89.93067042606609</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>112.0215514591179</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>55.42473440164041</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874929</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>142.3479518001831</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>19.53872709080509</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>43.69535452877627</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3426,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>36.20566991265509</v>
       </c>
     </row>
     <row r="38">
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876699</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>28.46864108608237</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3954,16 +3954,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>102.241680609784</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250119</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>119.2533645509484</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4152,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4191,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>187.2105768578391</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677.1610986358328</v>
+        <v>967.1113293026274</v>
       </c>
       <c r="C2" t="n">
-        <v>250.2603686491329</v>
+        <v>540.2105993159274</v>
       </c>
       <c r="D2" t="n">
-        <v>231.0081518745372</v>
+        <v>116.9179785009277</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266044</v>
+        <v>94.98144268918931</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>73.89766491899361</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>73.5990065488463</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>73.5990065488463</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
@@ -4336,46 +4336,46 @@
         <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>403.5871017449317</v>
       </c>
       <c r="M2" t="n">
-        <v>1359.183442594069</v>
+        <v>403.5871017449317</v>
       </c>
       <c r="N2" t="n">
-        <v>1359.183442594069</v>
+        <v>882.526025987361</v>
       </c>
       <c r="O2" t="n">
-        <v>1479.021285111688</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111688</v>
+        <v>1361.46495022979</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.550429733973</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660505</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.826284256917</v>
+        <v>1572.384561085428</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.336869383166</v>
+        <v>1395.936154390712</v>
       </c>
       <c r="W2" t="n">
-        <v>701.9455196835131</v>
+        <v>1395.936154390712</v>
       </c>
       <c r="X2" t="n">
-        <v>694.2659248916644</v>
+        <v>1388.256559598863</v>
       </c>
       <c r="Y2" t="n">
-        <v>692.9690588869588</v>
+        <v>1386.959693594157</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231743</v>
+        <v>46.14877825422936</v>
       </c>
       <c r="L3" t="n">
-        <v>517.6410595347455</v>
+        <v>343.3471304404864</v>
       </c>
       <c r="M3" t="n">
-        <v>517.6410595347455</v>
+        <v>343.3471304404864</v>
       </c>
       <c r="N3" t="n">
-        <v>807.4926073032677</v>
+        <v>822.2860546829156</v>
       </c>
       <c r="O3" t="n">
-        <v>1286.431531545696</v>
+        <v>822.2860546829156</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1058.860470245661</v>
+        <v>811.8300196189409</v>
       </c>
       <c r="C4" t="n">
-        <v>886.8879071245769</v>
+        <v>639.8574564978569</v>
       </c>
       <c r="D4" t="n">
-        <v>723.5711342513476</v>
+        <v>476.5406836246276</v>
       </c>
       <c r="E4" t="n">
-        <v>557.3629284042012</v>
+        <v>310.3324777774811</v>
       </c>
       <c r="F4" t="n">
-        <v>385.5011541787616</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>38.71266663274213</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>393.4019879271629</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>784.5877828974137</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1162.07929377345</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1517.507422453213</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375114</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822179</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.933103822179</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="U4" t="n">
-        <v>1717.933103822179</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="V4" t="n">
-        <v>1717.933103822179</v>
+        <v>1745.755057022946</v>
       </c>
       <c r="W4" t="n">
-        <v>1717.933103822179</v>
+        <v>1470.902653195459</v>
       </c>
       <c r="X4" t="n">
-        <v>1475.369207267985</v>
+        <v>1228.338756641265</v>
       </c>
       <c r="Y4" t="n">
-        <v>1249.026438957727</v>
+        <v>1001.995988331007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
         <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
         <v>1307.021068682275</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>1470.793562292066</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>1890.641926583596</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261616</v>
@@ -5032,7 +5032,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,52 +5041,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3012.464920930865</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="O11" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L12" t="n">
-        <v>821.6753975134684</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M12" t="n">
-        <v>821.6753975134684</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1185.483835930065</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C13" t="n">
-        <v>1013.511272808982</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D13" t="n">
-        <v>850.1944999357522</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>481.632277646931</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>309.7705034214914</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>143.5135337157236</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V13" t="n">
-        <v>1540.491264859194</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.04773248426</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.483835930065</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y13" t="n">
-        <v>1185.483835930065</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,25 +5281,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5314,16 +5314,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
         <v>1364.825557038856</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.7150043171358</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C16" t="n">
-        <v>869.7150043171358</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D16" t="n">
-        <v>706.3982314439065</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E16" t="n">
-        <v>540.1900255967601</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2235.67712750613</v>
+        <v>2191.876679782526</v>
       </c>
       <c r="U16" t="n">
-        <v>1955.492679006434</v>
+        <v>1911.692231282831</v>
       </c>
       <c r="V16" t="n">
-        <v>1673.781211614463</v>
+        <v>1629.98076389086</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.928807786976</v>
+        <v>1355.128360063373</v>
       </c>
       <c r="X16" t="n">
-        <v>1156.364911232781</v>
+        <v>1112.564463509178</v>
       </c>
       <c r="Y16" t="n">
-        <v>930.0221429225235</v>
+        <v>1112.564463509178</v>
       </c>
     </row>
     <row r="17">
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>712.1138248592184</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>540.1412617381344</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>540.1412617381344</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>373.933055890988</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655484</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655484</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1646.038862263224</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1371.186458435737</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1128.622561881542</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>902.279793571284</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5913,49 +5913,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358268</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302475</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506133</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025268</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251168</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751472</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359501</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,16 +6071,16 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
         <v>1364.825557038856</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>875.4793615910734</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1291.988098613397</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>1065.645330303139</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2262.979652848447</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2262.979652848447</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6469,13 +6469,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
         <v>3833.214576747414</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>1438.67580007916</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="32">
@@ -6715,13 +6715,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7031,7 +7031,7 @@
         <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,64 +7162,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>869.7150043171357</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>869.7150043171357</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439064</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967599</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1803.640041721141</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1528.787637893654</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>1286.223741339459</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>1059.880973029201</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7423,40 +7423,40 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P41" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q41" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1782.102586447038</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
         <v>1828.971033901635</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D43" t="n">
-        <v>3682.614429408222</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E43" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F43" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G43" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>4871.796322517327</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>4591.611874017632</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>4519.098937540281</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W43" t="n">
-        <v>4244.246533712793</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="X43" t="n">
-        <v>4244.246533712793</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y43" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N44" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>5115.135670291427</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>5115.135670291427</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3682.614429408222</v>
+        <v>896.1687373222062</v>
       </c>
       <c r="C46" t="n">
-        <v>3682.614429408222</v>
+        <v>724.1961742011222</v>
       </c>
       <c r="D46" t="n">
-        <v>3682.614429408222</v>
+        <v>560.8794013278929</v>
       </c>
       <c r="E46" t="n">
-        <v>3516.406223561076</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F46" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818953</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338088</v>
       </c>
       <c r="T46" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563988</v>
       </c>
       <c r="U46" t="n">
-        <v>4465.521068937939</v>
+        <v>1869.241345563988</v>
       </c>
       <c r="V46" t="n">
-        <v>4183.809601545968</v>
+        <v>1587.529878172017</v>
       </c>
       <c r="W46" t="n">
-        <v>3908.957197718481</v>
+        <v>1312.67747434453</v>
       </c>
       <c r="X46" t="n">
-        <v>3908.957197718481</v>
+        <v>1312.67747434453</v>
       </c>
       <c r="Y46" t="n">
-        <v>3682.614429408222</v>
+        <v>1086.334706034272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865907</v>
+        <v>40.61659560001555</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533996</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988415</v>
       </c>
       <c r="O2" t="n">
-        <v>158.4392851313968</v>
+        <v>521.1676505099931</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8002,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8063,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>322.7154424579235</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>314.1223693938671</v>
+        <v>505.1197193675106</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587965</v>
+        <v>505.5475323587976</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217031262</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>130.8354367406533</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8218,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,19 +8227,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,10 +8309,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
@@ -8543,19 +8543,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>371.4608596749573</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8701,10 +8701,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>763.4300748656121</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,19 +8938,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P14" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9014,7 +9014,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>419.9591894246358</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,7 +9023,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>418.2054371258495</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,7 +9731,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9889,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>418.2054371258495</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10117,16 +10117,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937289</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,19 +11071,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838776</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>70.51375583797689</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055937</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>101.5595937001311</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380279</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056112</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>150.9752838702929</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23910,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>166.8728012589335</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>114.7184220815448</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090171921</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>97.79030578846982</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>27.02950008889349</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>196.4429030598766</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>187.8736707145003</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208689135</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>250.425711631969</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>169.8621991794313</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>45.29275923772659</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685966</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>704660.8304781922</v>
+        <v>704660.8304781921</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>704660.8304781921</v>
+        <v>704660.8304781922</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>704660.8304781922</v>
+        <v>704660.8304781921</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>704660.8304781922</v>
+        <v>704660.8304781921</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>704660.8304781922</v>
+        <v>704660.8304781921</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>704660.8304781921</v>
+        <v>704660.8304781922</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>704660.8304781921</v>
+        <v>704660.8304781922</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>407709.8676078141</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078143</v>
+        <v>407709.8676078142</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078144</v>
       </c>
       <c r="E2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="F2" t="n">
-        <v>393421.2821962132</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="G2" t="n">
         <v>393421.2821962135</v>
       </c>
       <c r="H2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="I2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="K2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="L2" t="n">
         <v>393421.2821962132</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>393421.2821962133</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>393421.2821962132</v>
       </c>
-      <c r="N2" t="n">
-        <v>393421.282196213</v>
-      </c>
       <c r="O2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="P2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361191</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219126.275013497</v>
+        <v>219126.2750134968</v>
       </c>
       <c r="C4" t="n">
         <v>208489.0552260627</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216131</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,7 +26478,7 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
         <v>77750.06218842969</v>
@@ -26505,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36582.32629743524</v>
+        <v>-36582.32629743551</v>
       </c>
       <c r="C6" t="n">
-        <v>108367.7276707112</v>
+        <v>108367.7276707114</v>
       </c>
       <c r="D6" t="n">
-        <v>131774.5613443232</v>
+        <v>131774.5613443235</v>
       </c>
       <c r="E6" t="n">
-        <v>-15397.10399267299</v>
+        <v>-15448.134654857</v>
       </c>
       <c r="F6" t="n">
-        <v>200342.2525639676</v>
+        <v>200291.2219017833</v>
       </c>
       <c r="G6" t="n">
-        <v>200342.252563968</v>
+        <v>200291.2219017836</v>
       </c>
       <c r="H6" t="n">
-        <v>200342.2525639679</v>
+        <v>200291.2219017835</v>
       </c>
       <c r="I6" t="n">
-        <v>200342.2525639678</v>
+        <v>200291.2219017834</v>
       </c>
       <c r="J6" t="n">
-        <v>73764.98398367893</v>
+        <v>73713.95332149429</v>
       </c>
       <c r="K6" t="n">
-        <v>181695.6522069478</v>
+        <v>181644.6215447639</v>
       </c>
       <c r="L6" t="n">
-        <v>200342.2525639677</v>
+        <v>200291.2219017833</v>
       </c>
       <c r="M6" t="n">
-        <v>20278.38110879991</v>
+        <v>20227.35044661576</v>
       </c>
       <c r="N6" t="n">
-        <v>200342.2525639674</v>
+        <v>200291.2219017834</v>
       </c>
       <c r="O6" t="n">
-        <v>200342.2525639679</v>
+        <v>200291.2219017835</v>
       </c>
       <c r="P6" t="n">
-        <v>200342.2525639678</v>
+        <v>200291.2219017834</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,7 +26798,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -26825,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153969</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153969</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>252.502825816163</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>179.2305980972436</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>62.39255969518447</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27596,10 +27596,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>138.0043893807498</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>307.0927181998168</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202498</v>
+        <v>200.0421967183579</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>307.0927181998167</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28739,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-8.276510743266683e-13</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30899,7 +30899,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539678</v>
+        <v>2.304553167392623</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O2" t="n">
-        <v>121.0483257753728</v>
+        <v>483.776691153969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539678</v>
+        <v>300.2003557436939</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>292.7793411803254</v>
+        <v>483.776691153969</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.776691153969</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771760061943</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>108.2599968491675</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34938,7 +34938,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>155.2981118204435</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>440.0596680121639</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35421,10 +35421,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311661</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,19 +35658,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P14" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937779</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36609,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36837,16 +36837,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891309</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37791,19 +37791,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494316</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.899392706162</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391497</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
